--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_53__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_53__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5420,13 +5420,13 @@
                   <c:v>8.422908782958984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.7414722442627</c:v>
+                  <c:v>14.74146938323975</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.94861602783203</c:v>
+                  <c:v>44.94862747192383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.66603469848633</c:v>
+                  <c:v>17.66603660583496</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>89.77064514160156</c:v>
@@ -5435,25 +5435,25 @@
                   <c:v>57.72937774658203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.5164756178855896</c:v>
+                  <c:v>-0.5164785981178284</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.198184251785278</c:v>
+                  <c:v>2.198187112808228</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>89.76506805419922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.192890882492065</c:v>
+                  <c:v>2.192893981933594</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>91.10877990722656</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.122414112091064</c:v>
+                  <c:v>2.122409820556641</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.662106037139893</c:v>
+                  <c:v>7.662112236022949</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>8.997217178344727</c:v>
@@ -5462,40 +5462,40 @@
                   <c:v>96.04649353027344</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>89.75801849365234</c:v>
+                  <c:v>89.75800323486328</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>81.05353546142578</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96.13684844970703</c:v>
+                  <c:v>96.1368408203125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.945247054100037</c:v>
+                  <c:v>1.94523823261261</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>89.76625823974609</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.039443016052246</c:v>
+                  <c:v>8.039443969726562</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>92.74900054931641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.10575532913208</c:v>
+                  <c:v>2.105758190155029</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1.233242869377136</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.236995697021484</c:v>
+                  <c:v>2.236998558044434</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.194986820220947</c:v>
+                  <c:v>2.194991111755371</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.133785605430603</c:v>
+                  <c:v>1.13378119468689</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.01190765574574471</c:v>
@@ -5504,7 +5504,7 @@
                   <c:v>84.68511962890625</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.163773536682129</c:v>
+                  <c:v>2.163774967193604</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>95.42513275146484</c:v>
@@ -5513,55 +5513,55 @@
                   <c:v>92.06678009033203</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1944563686847687</c:v>
+                  <c:v>0.1944534182548523</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>94.76900482177734</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0004536249907687306</c:v>
+                  <c:v>0.0004595162463374436</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>93.24308013916016</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.231220722198486</c:v>
+                  <c:v>1.231226563453674</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>88.56594848632812</c:v>
+                  <c:v>88.56595611572266</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>74.13861083984375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>54.31450653076172</c:v>
+                  <c:v>54.31451416015625</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>89.88865661621094</c:v>
+                  <c:v>89.88864135742188</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.09181193262338638</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>95.56244659423828</c:v>
+                  <c:v>95.56245422363281</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>95.3143310546875</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.189730405807495</c:v>
+                  <c:v>2.189728975296021</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.501930236816406</c:v>
+                  <c:v>1.50193464756012</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96.13673400878906</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.24257755279541</c:v>
+                  <c:v>2.242579221725464</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.175977230072021</c:v>
+                  <c:v>2.175975799560547</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>96.10785675048828</c:v>
@@ -5570,7 +5570,7 @@
                   <c:v>82.94219970703125</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.487624883651733</c:v>
+                  <c:v>2.487623453140259</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>96.05658721923828</c:v>
@@ -5579,10 +5579,10 @@
                   <c:v>90.68939208984375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>91.58749389648438</c:v>
+                  <c:v>91.58748626708984</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.125000476837158</c:v>
+                  <c:v>2.125004768371582</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>96.13679504394531</c:v>
@@ -5591,7 +5591,7 @@
                   <c:v>96.09914398193359</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.3970632553100586</c:v>
+                  <c:v>0.397066205739975</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>95.54238891601562</c:v>
@@ -5600,40 +5600,40 @@
                   <c:v>0.3832954466342926</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.199630498886108</c:v>
+                  <c:v>2.199629068374634</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>56.95983123779297</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.915462493896484</c:v>
+                  <c:v>1.915465474128723</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>96.13680267333984</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.719638109207153</c:v>
+                  <c:v>3.719639539718628</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>87.78680419921875</c:v>
+                  <c:v>87.78681182861328</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.723888397216797</c:v>
+                  <c:v>1.723885416984558</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>90.84064483642578</c:v>
+                  <c:v>90.84062957763672</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>90.42833709716797</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>90.83060455322266</c:v>
+                  <c:v>90.83061218261719</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>89.66560363769531</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>96.11670684814453</c:v>
+                  <c:v>96.11669921875</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>2.189515352249146</c:v>
@@ -5651,31 +5651,31 @@
                   <c:v>93.75125885009766</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.3574093580245972</c:v>
+                  <c:v>-0.3574123084545135</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>20.59251594543457</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>96.13317108154297</c:v>
+                  <c:v>96.13316345214844</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>59.14271926879883</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.7842115759849548</c:v>
+                  <c:v>-0.7842144966125488</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.8968254327774048</c:v>
+                  <c:v>0.8968240022659302</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>93.73905944824219</c:v>
+                  <c:v>93.73905181884766</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.493973255157471</c:v>
+                  <c:v>6.493971824645996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>14.82961368560791</c:v>
+                  <c:v>14.82962226867676</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>96.05891418457031</c:v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.7414722442627</v>
+        <v>14.74146938323975</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>44.94861602783203</v>
+        <v>44.94862747192383</v>
       </c>
       <c r="G4">
         <v>99</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.66603469848633</v>
+        <v>17.66603660583496</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.5164756178855896</v>
+        <v>-0.5164785981178284</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.198184251785278</v>
+        <v>2.198187112808228</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.192890882492065</v>
+        <v>2.192893981933594</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.122414112091064</v>
+        <v>2.122409820556641</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>7.662106037139893</v>
+        <v>7.662112236022949</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>89.75801849365234</v>
+        <v>89.75800323486328</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>96.13684844970703</v>
+        <v>96.1368408203125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.945247054100037</v>
+        <v>1.94523823261261</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>8.039443016052246</v>
+        <v>8.039443969726562</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.10575532913208</v>
+        <v>2.105758190155029</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.236995697021484</v>
+        <v>2.236998558044434</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2.194986820220947</v>
+        <v>2.194991111755371</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.133785605430603</v>
+        <v>1.13378119468689</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2.163773536682129</v>
+        <v>2.163774967193604</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.1944563686847687</v>
+        <v>0.1944534182548523</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.0004536249907687306</v>
+        <v>0.0004595162463374436</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.231220722198486</v>
+        <v>1.231226563453674</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>88.56594848632812</v>
+        <v>88.56595611572266</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>54.31450653076172</v>
+        <v>54.31451416015625</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>89.88865661621094</v>
+        <v>89.88864135742188</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>95.56244659423828</v>
+        <v>95.56245422363281</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2.189730405807495</v>
+        <v>2.189728975296021</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.501930236816406</v>
+        <v>1.50193464756012</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2.24257755279541</v>
+        <v>2.242579221725464</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2.175977230072021</v>
+        <v>2.175975799560547</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2.487624883651733</v>
+        <v>2.487623453140259</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>93.425</v>
       </c>
       <c r="F56">
-        <v>91.58749389648438</v>
+        <v>91.58748626708984</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2.125000476837158</v>
+        <v>2.125004768371582</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.3970632553100586</v>
+        <v>0.397066205739975</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>2.199630498886108</v>
+        <v>2.199629068374634</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.915462493896484</v>
+        <v>1.915465474128723</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>3.719638109207153</v>
+        <v>3.719639539718628</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>87.78680419921875</v>
+        <v>87.78681182861328</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.723888397216797</v>
+        <v>1.723885416984558</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>90.84064483642578</v>
+        <v>90.84062957763672</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>90.83060455322266</v>
+        <v>90.83061218261719</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>96.11670684814453</v>
+        <v>96.11669921875</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-0.3574093580245972</v>
+        <v>-0.3574123084545135</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>96.13317108154297</v>
+        <v>96.13316345214844</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.7842115759849548</v>
+        <v>-0.7842144966125488</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.8968254327774048</v>
+        <v>0.8968240022659302</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>93.73905944824219</v>
+        <v>93.73905181884766</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>6.493973255157471</v>
+        <v>6.493971824645996</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>14.82961368560791</v>
+        <v>14.82962226867676</v>
       </c>
     </row>
     <row r="89" spans="1:6">
